--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2121,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -72,15 +72,6 @@
     <t>Fail To proceed to Admission</t>
   </si>
   <si>
-    <t>Inprocessing</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[2]</t>
-  </si>
-  <si>
-    <t>fail to proceed to in processing</t>
-  </si>
-  <si>
     <t>search button</t>
   </si>
   <si>
@@ -319,6 +310,15 @@
   </si>
   <si>
     <t>fail to proceed to Follow Ups</t>
+  </si>
+  <si>
+    <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs-canvas//md-tab-item[1]</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>fail to proceed to in All</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,12 +759,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="75">
+    <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -781,15 +781,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -806,21 +806,21 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="75">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -828,18 +828,18 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -856,15 +856,15 @@
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -881,15 +881,15 @@
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -906,18 +906,18 @@
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
@@ -926,24 +926,24 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -952,15 +952,15 @@
       </c>
       <c r="H11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -977,15 +977,15 @@
       </c>
       <c r="H12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="90">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1002,15 +1002,15 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1027,15 +1027,15 @@
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1052,15 +1052,15 @@
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1077,15 +1077,15 @@
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45">
-      <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1209,15 +1209,15 @@
       </c>
       <c r="H3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1234,36 +1234,36 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1272,11 +1272,11 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1485,10 +1485,10 @@
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1503,15 +1503,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1526,15 +1526,15 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1570,35 +1570,35 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1607,11 +1607,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1730,10 +1730,10 @@
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1748,15 +1748,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1771,16 +1771,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1794,12 +1794,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1815,35 +1815,35 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1852,11 +1852,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1993,15 +1993,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -2016,12 +2016,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2037,35 +2037,35 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2074,11 +2074,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2174,10 +2174,10 @@
     </row>
     <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -2192,15 +2192,15 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2215,15 +2215,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2259,35 +2259,35 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2296,11 +2296,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -90,235 +90,235 @@
     <t>input</t>
   </si>
   <si>
+    <t>Fail to search Patient</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[4]/md-content/md-list/md-list-item/div/div[1]/button</t>
+  </si>
+  <si>
+    <t>Fail to click Basic info Icon</t>
+  </si>
+  <si>
+    <t>Basic Info*</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openPatientSidebar('patientbasic-sidenav')"]</t>
+  </si>
+  <si>
+    <t>fail to click basic info button</t>
+  </si>
+  <si>
+    <t>Edit Patient Name</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.changekey()"]</t>
+  </si>
+  <si>
+    <t>Fail to click Edit Patient Name</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.editkey.firstName"]</t>
+  </si>
+  <si>
+    <t>Fail To Edit First Name</t>
+  </si>
+  <si>
+    <t>Middlename</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.editkey.middleName"]</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Fail to Edit last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.editkey.gender"]</t>
+  </si>
+  <si>
+    <t>Fail to Edit Gender</t>
+  </si>
+  <si>
+    <t>Gender Select</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
+  </si>
+  <si>
+    <t>Fail to Select New Gender</t>
+  </si>
+  <si>
+    <t>Update Edit</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updatePatientKey(event)"]</t>
+  </si>
+  <si>
+    <t>Fail to click Update Edit</t>
+  </si>
+  <si>
+    <t>ConfirmationEdit</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="dialog.hide()"]</t>
+  </si>
+  <si>
+    <t>Fail to Confirm Edit</t>
+  </si>
+  <si>
+    <t>Close Edit</t>
+  </si>
+  <si>
+    <t>Fail TO close Edit</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[1]/md-content/button[2]</t>
+  </si>
+  <si>
+    <t>Fail to update basic info</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Scheduling"]</t>
+  </si>
+  <si>
+    <t>Scheduling</t>
+  </si>
+  <si>
+    <t>fail to proceed to Scheduling</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.filterShow = false; vm.focusInput()"]</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>fail to click Search</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.searchName"]</t>
+  </si>
+  <si>
+    <t>Search Name</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,"%1$2s")]</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>Unable to Verify Patient</t>
+  </si>
+  <si>
+    <t>Unable to input Patient</t>
+  </si>
+  <si>
+    <t>Auditing</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Auditing"]</t>
+  </si>
+  <si>
+    <t>fail to proceed to Auditing</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Note Audit"]</t>
+  </si>
+  <si>
+    <t>Note Audit</t>
+  </si>
+  <si>
+    <t>fail to proceed to Note Audit</t>
+  </si>
+  <si>
+    <t>Fail to Click Search</t>
+  </si>
+  <si>
+    <t>//div[@class="md-toolbar-tools md-patient-bar none-padding-margin ng-scope"]//input</t>
+  </si>
+  <si>
+    <t>Search Patient</t>
+  </si>
+  <si>
+    <t>Fail to Input Patient</t>
+  </si>
+  <si>
+    <t>//md-tabs-canvas[@ng-class="{ 'md-paginated': $mdTabsCtrl.shouldPaginate, 'md-center-tabs': $mdTabsCtrl.shouldCenterTabs }"]//md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>All Tab</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Order Audit"]</t>
+  </si>
+  <si>
+    <t>Order Audit</t>
+  </si>
+  <si>
+    <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-cs-content-theme-theme"]//md-tabs-canvas//md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Authorization"]</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>fail to proceed to Authorization</t>
+  </si>
+  <si>
+    <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs-canvas//md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Compliance &amp; Quality"]</t>
+  </si>
+  <si>
+    <t>Compliance &amp; Quality</t>
+  </si>
+  <si>
+    <t>Fail TO proceed To Compliance &amp; Quality</t>
+  </si>
+  <si>
+    <t>Follow Ups</t>
+  </si>
+  <si>
+    <t>fail to proceed to Follow Ups</t>
+  </si>
+  <si>
+    <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs-canvas//md-tab-item[1]</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>fail to proceed to in All</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/section/div[2]/button</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
     <t>test7</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Fail to search Patient</t>
-  </si>
-  <si>
-    <t>Basic Information</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/md-content[4]/md-content/md-list/md-list-item/div/div[1]/button</t>
-  </si>
-  <si>
-    <t>Fail to click Basic info Icon</t>
-  </si>
-  <si>
-    <t>Basic Info*</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.openPatientSidebar('patientbasic-sidenav')"]</t>
-  </si>
-  <si>
-    <t>fail to click basic info button</t>
-  </si>
-  <si>
-    <t>Edit Patient Name</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.changekey()"]</t>
-  </si>
-  <si>
-    <t>Fail to click Edit Patient Name</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.editkey.firstName"]</t>
-  </si>
-  <si>
-    <t>Fail To Edit First Name</t>
-  </si>
-  <si>
-    <t>Middlename</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.editkey.middleName"]</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Fail to Edit last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.editkey.gender"]</t>
-  </si>
-  <si>
-    <t>Fail to Edit Gender</t>
-  </si>
-  <si>
-    <t>Gender Select</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
-  </si>
-  <si>
-    <t>Fail to Select New Gender</t>
-  </si>
-  <si>
-    <t>Update Edit</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.updatePatientKey(event)"]</t>
-  </si>
-  <si>
-    <t>Fail to click Update Edit</t>
-  </si>
-  <si>
-    <t>ConfirmationEdit</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="dialog.hide()"]</t>
-  </si>
-  <si>
-    <t>Fail to Confirm Edit</t>
-  </si>
-  <si>
-    <t>Close Edit</t>
-  </si>
-  <si>
-    <t>Fail TO close Edit</t>
-  </si>
-  <si>
-    <t>rename</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[1]/md-content/button[2]</t>
-  </si>
-  <si>
-    <t>Fail to update basic info</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Scheduling"]</t>
-  </si>
-  <si>
-    <t>Scheduling</t>
-  </si>
-  <si>
-    <t>fail to proceed to Scheduling</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.filterShow = false; vm.focusInput()"]</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>fail to click Search</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.searchName"]</t>
-  </si>
-  <si>
-    <t>Search Name</t>
-  </si>
-  <si>
-    <t>//button[contains(@aria-label,"%1$2s")]</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>Unable to Verify Patient</t>
-  </si>
-  <si>
-    <t>Unable to input Patient</t>
-  </si>
-  <si>
-    <t>Auditing</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Auditing"]</t>
-  </si>
-  <si>
-    <t>fail to proceed to Auditing</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Note Audit"]</t>
-  </si>
-  <si>
-    <t>Note Audit</t>
-  </si>
-  <si>
-    <t>fail to proceed to Note Audit</t>
-  </si>
-  <si>
-    <t>Fail to Click Search</t>
-  </si>
-  <si>
-    <t>//div[@class="md-toolbar-tools md-patient-bar none-padding-margin ng-scope"]//input</t>
-  </si>
-  <si>
-    <t>Search Patient</t>
-  </si>
-  <si>
-    <t>Fail to Input Patient</t>
-  </si>
-  <si>
-    <t>//md-tabs-canvas[@ng-class="{ 'md-paginated': $mdTabsCtrl.shouldPaginate, 'md-center-tabs': $mdTabsCtrl.shouldCenterTabs }"]//md-tab-item[4]</t>
-  </si>
-  <si>
-    <t>All Tab</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Order Audit"]</t>
-  </si>
-  <si>
-    <t>Order Audit</t>
-  </si>
-  <si>
-    <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-cs-content-theme-theme"]//md-tabs-canvas//md-tab-item[3]</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Authorization"]</t>
-  </si>
-  <si>
-    <t>Authorization</t>
-  </si>
-  <si>
-    <t>fail to proceed to Authorization</t>
-  </si>
-  <si>
-    <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs-canvas//md-tab-item[4]</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Compliance &amp; Quality"]</t>
-  </si>
-  <si>
-    <t>Compliance &amp; Quality</t>
-  </si>
-  <si>
-    <t>Fail TO proceed To Compliance &amp; Quality</t>
-  </si>
-  <si>
-    <t>Follow Ups</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Follow Ups"]</t>
-  </si>
-  <si>
-    <t>fail to proceed to Follow Ups</t>
-  </si>
-  <si>
-    <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs-canvas//md-tab-item[1]</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>fail to proceed to in All</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -364,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,10 +764,10 @@
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -781,7 +784,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
@@ -820,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -828,18 +831,18 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -856,15 +859,15 @@
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -881,15 +884,15 @@
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -906,15 +909,15 @@
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -926,24 +929,24 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -952,15 +955,15 @@
       </c>
       <c r="H11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -977,15 +980,15 @@
       </c>
       <c r="H12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="90">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1002,15 +1005,15 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1027,15 +1030,15 @@
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1052,15 +1055,15 @@
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1077,15 +1080,15 @@
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -1102,11 +1105,12 @@
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1115,7 +1119,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1189,10 +1193,10 @@
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1209,15 +1213,15 @@
       </c>
       <c r="H3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1234,15 +1238,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -1252,18 +1256,18 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1272,11 +1276,11 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1410,7 +1414,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1485,33 +1489,33 @@
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1526,15 +1530,15 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1551,7 +1555,7 @@
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -1570,15 +1574,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1587,18 +1591,18 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1607,11 +1611,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1655,7 +1659,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1730,33 +1734,33 @@
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1771,15 +1775,15 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1796,7 +1800,7 @@
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -1815,15 +1819,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1832,18 +1836,18 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1852,11 +1856,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1975,33 +1979,33 @@
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -2018,7 +2022,7 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -2037,15 +2041,15 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -2054,18 +2058,18 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2074,11 +2078,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2122,7 +2126,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2174,10 +2178,10 @@
     </row>
     <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -2192,38 +2196,38 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -2240,7 +2244,7 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -2259,15 +2263,15 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -2276,18 +2280,18 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2296,11 +2300,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10">

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>test7</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.searchFilter()"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.searchText"]</t>
   </si>
 </sst>
 </file>
@@ -664,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2242,12 +2248,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2271,7 +2277,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1260,7 +1260,9 @@
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1420,7 +1422,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1594,7 +1596,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>54</v>
@@ -1665,7 +1667,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1839,7 +1841,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>54</v>
@@ -1910,7 +1912,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2061,7 +2063,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>54</v>
@@ -2132,7 +2134,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2283,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>54</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -303,12 +303,6 @@
     <t>fail to proceed to Follow Ups</t>
   </si>
   <si>
-    <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs-canvas//md-tab-item[1]</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>fail to proceed to in All</t>
   </si>
   <si>
@@ -325,6 +319,9 @@
   </si>
   <si>
     <t>//input[@ng-model="vm.searchText"]</t>
+  </si>
+  <si>
+    <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs//md-tab-item[4]</t>
   </si>
 </sst>
 </file>
@@ -670,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,10 +767,10 @@
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -790,7 +787,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
@@ -829,7 +826,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -837,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -2133,7 +2130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2212,7 +2209,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2250,12 +2247,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2279,7 +2276,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t>fail to proceed to in All</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[2]/button</t>
-  </si>
-  <si>
     <t>lastname</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs//md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>//div[@class="dashboard-container padded-content-page ng-scope calendar-background-month-6 layout-column"]//div[3]/button</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -770,7 +770,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -826,7 +826,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -2130,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2204,12 +2204,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45">
+    <row r="3" spans="1:10" ht="75">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2252,7 +2252,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2276,7 +2276,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -51,27 +51,12 @@
     <t>Error Notice</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Operations"]</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>Admission</t>
   </si>
   <si>
-    <t>//button[@aria-label="Admission"]</t>
-  </si>
-  <si>
-    <t>Fail TO proceed To Operation</t>
-  </si>
-  <si>
-    <t>Fail To proceed to Admission</t>
-  </si>
-  <si>
     <t>search button</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t>Fail to update basic info</t>
   </si>
   <si>
-    <t>//button[@aria-label="Scheduling"]</t>
-  </si>
-  <si>
     <t>Scheduling</t>
   </si>
   <si>
@@ -234,15 +216,9 @@
     <t>Auditing</t>
   </si>
   <si>
-    <t>//button[@aria-label="Auditing"]</t>
-  </si>
-  <si>
     <t>fail to proceed to Auditing</t>
   </si>
   <si>
-    <t>//button[@aria-label="Note Audit"]</t>
-  </si>
-  <si>
     <t>Note Audit</t>
   </si>
   <si>
@@ -276,9 +252,6 @@
     <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-cs-content-theme-theme"]//md-tabs-canvas//md-tab-item[3]</t>
   </si>
   <si>
-    <t>//button[@aria-label="Authorization"]</t>
-  </si>
-  <si>
     <t>Authorization</t>
   </si>
   <si>
@@ -288,9 +261,6 @@
     <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs-canvas//md-tab-item[4]</t>
   </si>
   <si>
-    <t>//button[@aria-label="Compliance &amp; Quality"]</t>
-  </si>
-  <si>
     <t>Compliance &amp; Quality</t>
   </si>
   <si>
@@ -321,7 +291,58 @@
     <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs//md-tab-item[4]</t>
   </si>
   <si>
-    <t>//div[@class="dashboard-container padded-content-page ng-scope calendar-background-month-6 layout-column"]//div[3]/button</t>
+    <t>Fail to Click All Tab</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Administration"])[2]</t>
+  </si>
+  <si>
+    <t>Fail to create patient</t>
+  </si>
+  <si>
+    <t>Clinical Support</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Clinical Support"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Admission"])[2]</t>
+  </si>
+  <si>
+    <t>Fail to Enter Admission</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Scheduling"])[2]</t>
+  </si>
+  <si>
+    <t>RIM</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="RIM"])[2]</t>
+  </si>
+  <si>
+    <t>fail to click RIM</t>
+  </si>
+  <si>
+    <t>Fail to proceed  Administration</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Auditing"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Note Audit"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Authorization"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Compliance &amp; Quality"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Follow Ups"])[2]</t>
   </si>
 </sst>
 </file>
@@ -665,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -715,17 +736,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -735,22 +756,22 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -758,22 +779,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="105">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -783,24 +804,24 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -808,97 +829,97 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="75">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="75">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
@@ -908,93 +929,93 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="90">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1">
@@ -1008,18 +1029,18 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1">
@@ -1033,18 +1054,18 @@
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1">
@@ -1058,18 +1079,18 @@
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1">
@@ -1083,18 +1104,18 @@
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="1">
@@ -1104,11 +1125,36 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1119,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1169,17 +1215,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -1189,22 +1235,22 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -1212,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1241,63 +1287,77 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
@@ -1409,6 +1469,17 @@
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
     </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1416,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,14 +1542,15 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -1488,20 +1560,22 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
+      <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -1509,122 +1583,146 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="90">
+      <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="90">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="D10" s="2"/>
@@ -1652,6 +1750,9 @@
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1661,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1716,14 +1817,15 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -1733,20 +1835,22 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
+      <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -1754,21 +1858,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1777,99 +1882,119 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="90">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="90">
       <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="D10" s="2"/>
@@ -1897,6 +2022,9 @@
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1909,7 +2037,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1961,14 +2089,15 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -1978,19 +2107,20 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
+      <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -2002,18 +2132,18 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2027,13 +2157,13 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -2046,35 +2176,35 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2083,11 +2213,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2131,7 +2261,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2183,13 +2313,13 @@
     </row>
     <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -2201,18 +2331,18 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -2224,18 +2354,18 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2249,13 +2379,13 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -2268,35 +2398,35 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2305,11 +2435,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10">

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -297,18 +297,12 @@
     <t>Administration</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Administration"])[2]</t>
-  </si>
-  <si>
     <t>Fail to create patient</t>
   </si>
   <si>
     <t>Clinical Support</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Clinical Support"])[2]</t>
-  </si>
-  <si>
     <t>(//button[@aria-label="Admission"])[2]</t>
   </si>
   <si>
@@ -321,15 +315,9 @@
     <t>RIM</t>
   </si>
   <si>
-    <t>(//button[@aria-label="RIM"])[2]</t>
-  </si>
-  <si>
     <t>fail to click RIM</t>
   </si>
   <si>
-    <t>Fail to proceed  Administration</t>
-  </si>
-  <si>
     <t>(//button[@aria-label="Auditing"])[2]</t>
   </si>
   <si>
@@ -339,10 +327,19 @@
     <t>(//button[@aria-label="Authorization"])[2]</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Compliance &amp; Quality"])[2]</t>
-  </si>
-  <si>
     <t>(//button[@aria-label="Follow Ups"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Administration"])[3]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Clinical Support"])[3]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="RIM"])[3]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Compliance &amp; Quality"])[3]</t>
   </si>
 </sst>
 </file>
@@ -688,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -736,12 +733,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -758,15 +755,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -783,15 +780,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -808,7 +805,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="105">
@@ -1215,12 +1212,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1237,15 +1234,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1262,7 +1259,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1270,7 +1267,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1545,7 +1542,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1562,15 +1559,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1587,7 +1584,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1595,7 +1592,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1618,7 +1615,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1764,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1820,7 +1817,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1837,15 +1834,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1862,7 +1859,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1870,7 +1867,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2034,233 +2031,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="105">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2311,6 +2084,255 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
         <v>80</v>
@@ -2339,7 +2361,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -81,9 +81,6 @@
     <t>Basic Information</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/md-content[4]/md-content/md-list/md-list-item/div/div[1]/button</t>
-  </si>
-  <si>
     <t>Fail to click Basic info Icon</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>(//button[@aria-label="Compliance &amp; Quality"])[3]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openPatientInfo(admissionKey)"]</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,10 +735,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -755,15 +755,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -805,15 +805,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="105">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -869,7 +869,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -877,18 +877,18 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -905,15 +905,15 @@
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -930,15 +930,15 @@
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -955,15 +955,15 @@
       </c>
       <c r="H10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -975,24 +975,24 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1001,15 +1001,15 @@
       </c>
       <c r="H12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -1026,15 +1026,15 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="90">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1051,15 +1051,15 @@
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -1076,15 +1076,15 @@
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1101,15 +1101,15 @@
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1126,15 +1126,15 @@
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60">
       <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1234,15 +1234,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1259,15 +1259,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1284,15 +1284,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1309,15 +1309,15 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1329,18 +1329,18 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1349,11 +1349,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1539,10 +1539,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1559,15 +1559,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1584,38 +1584,38 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1630,15 +1630,15 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="90">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1653,12 +1653,12 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1677,15 +1677,15 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -1694,18 +1694,18 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1714,11 +1714,11 @@
         <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9"/>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1814,10 +1814,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1834,15 +1834,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1859,38 +1859,38 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1905,15 +1905,15 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="90">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1949,15 +1949,15 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -1966,18 +1966,18 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1986,11 +1986,11 @@
         <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9"/>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2086,10 +2086,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2106,15 +2106,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2131,38 +2131,38 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="105">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -2198,15 +2198,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -2215,18 +2215,18 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2235,11 +2235,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2335,10 +2335,10 @@
     </row>
     <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2353,38 +2353,38 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2420,15 +2420,15 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -2437,18 +2437,18 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2457,11 +2457,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10">

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -686,7 +686,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -273,9 +273,6 @@
     <t>fail to proceed to in All</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>test7</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.openPatientInfo(admissionKey)"]</t>
+  </si>
+  <si>
+    <t>fullname</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,10 +735,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -755,15 +755,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="105">
@@ -813,7 +813,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -869,7 +869,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -888,7 +888,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1234,15 +1234,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1267,7 +1267,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1559,15 +1559,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1592,7 +1592,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1615,7 +1615,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -1814,10 +1814,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1834,15 +1834,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1867,7 +1867,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2106,15 +2106,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -2139,7 +2139,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2338,7 +2338,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2361,7 +2361,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2404,7 +2404,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2428,7 +2428,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -270,21 +270,12 @@
     <t>fail to proceed to Follow Ups</t>
   </si>
   <si>
-    <t>fail to proceed to in All</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
     <t>//button[@ng-click="vm.searchFilter()"]</t>
   </si>
   <si>
     <t>//input[@ng-model="vm.searchText"]</t>
   </si>
   <si>
-    <t>//md-content[@class="triangular-content ng-scope _md md-cs-content-theme-theme flex triangular-non-scrolling"]//md-tabs//md-tab-item[4]</t>
-  </si>
-  <si>
     <t>Fail to Click All Tab</t>
   </si>
   <si>
@@ -340,6 +331,15 @@
   </si>
   <si>
     <t>fullname</t>
+  </si>
+  <si>
+    <t>//md-tabs[@id="compliance-tabs"]//md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>Active tab</t>
+  </si>
+  <si>
+    <t>fail to proceed to in active</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,10 +735,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -755,15 +755,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -805,15 +805,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="105">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -868,16 +868,14 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -888,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1214,10 +1212,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1234,15 +1232,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1259,7 +1257,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1267,7 +1265,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1539,10 +1537,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1559,15 +1557,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1584,7 +1582,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1592,7 +1590,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1615,7 +1613,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1653,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -1814,10 +1812,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1834,15 +1832,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1859,7 +1857,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1867,7 +1865,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2086,10 +2084,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2106,15 +2104,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2131,7 +2129,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -2139,7 +2137,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2338,7 +2336,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2361,7 +2359,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2404,7 +2402,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2428,7 +2426,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>Fail to Input Patient</t>
   </si>
   <si>
-    <t>//md-tabs-canvas[@ng-class="{ 'md-paginated': $mdTabsCtrl.shouldPaginate, 'md-center-tabs': $mdTabsCtrl.shouldCenterTabs }"]//md-tab-item[4]</t>
-  </si>
-  <si>
     <t>All Tab</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>fail to proceed to in active</t>
+  </si>
+  <si>
+    <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-cs-content-theme-theme"]//md-tabs-canvas//md-tab-item[4]</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -735,10 +735,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -755,15 +755,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -805,15 +805,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1232,15 +1232,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1265,7 +1265,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1477,6 +1477,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1484,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,10 +1538,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1557,15 +1558,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1582,7 +1583,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1590,7 +1591,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1613,7 +1614,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1631,12 +1632,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="90">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1651,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -1760,6 +1761,278 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="90">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1812,10 +2085,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1832,15 +2105,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1853,19 +2126,19 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1880,15 +2153,15 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1900,22 +2173,20 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -1925,71 +2196,53 @@
       <c r="G6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
+      <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9" s="1" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="D10" s="2"/>
@@ -2017,9 +2270,6 @@
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,12 +2277,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2082,17 +2332,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -2102,22 +2351,20 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -2125,264 +2372,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>6</v>
-      </c>
-      <c r="I3"/>
+        <v>3</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="105">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="45">
-      <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2402,7 +2403,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2426,7 +2427,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1632,7 +1632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="90">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>48</v>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-cs-content-theme-theme"]//md-tabs-canvas//md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple" and @ng-click="vm.openSession(session)"])[2]</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1489,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple" and @ng-click="vm.openSession(session)"])[2]</t>
+  </si>
+  <si>
+    <t>focus</t>
   </si>
 </sst>
 </file>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,7 +1169,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1707,7 +1710,7 @@
         <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1764,7 +1767,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -210,12 +210,6 @@
     <t>Unable to input Patient</t>
   </si>
   <si>
-    <t>Auditing</t>
-  </si>
-  <si>
-    <t>fail to proceed to Auditing</t>
-  </si>
-  <si>
     <t>Note Audit</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>All Tab</t>
   </si>
   <si>
-    <t>//button[@aria-label="Order Audit"]</t>
-  </si>
-  <si>
     <t>Order Audit</t>
   </si>
   <si>
@@ -300,12 +291,6 @@
     <t>fail to click RIM</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Auditing"])[2]</t>
-  </si>
-  <si>
-    <t>(//button[@aria-label="Note Audit"])[2]</t>
-  </si>
-  <si>
     <t>(//button[@aria-label="Authorization"])[2]</t>
   </si>
   <si>
@@ -346,6 +331,12 @@
   </si>
   <si>
     <t>focus</t>
+  </si>
+  <si>
+    <t>//button[@class="md-landing-fab md-button md-cs-content-theme-theme md-ink-ripple" and  @aria-label="Note Audit"]</t>
+  </si>
+  <si>
+    <t>//button[@class="md-landing-fab md-button md-cs-content-theme-theme md-ink-ripple" and @aria-label="Order Audit"]</t>
   </si>
 </sst>
 </file>
@@ -741,10 +732,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -761,15 +752,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -786,7 +777,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -794,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -811,15 +802,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -836,7 +827,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -881,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -892,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1218,10 +1209,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1238,15 +1229,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1263,7 +1254,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1271,7 +1262,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1489,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1544,10 +1535,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1564,15 +1555,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1589,7 +1580,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1597,7 +1588,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1609,122 +1600,102 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="60.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="90">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9" s="1" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="D10" s="2"/>
@@ -1752,9 +1723,6 @@
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1819,10 +1787,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1839,15 +1807,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1864,15 +1832,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1884,18 +1852,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1907,96 +1875,76 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="90">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9" s="1" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="D10" s="2"/>
@@ -2024,9 +1972,6 @@
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2091,10 +2036,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2111,15 +2056,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2136,15 +2081,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2159,15 +2104,15 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="105">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2203,15 +2148,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -2223,7 +2168,7 @@
         <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
@@ -2340,10 +2285,10 @@
     </row>
     <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2358,15 +2303,15 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2381,15 +2326,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2409,7 +2354,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2425,15 +2370,15 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -2445,7 +2390,7 @@
         <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Order Audit</t>
-  </si>
-  <si>
-    <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-cs-content-theme-theme"]//md-tabs-canvas//md-tab-item[3]</t>
   </si>
   <si>
     <t>Authorization</t>
@@ -732,10 +729,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -752,15 +749,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -777,7 +774,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -785,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -802,15 +799,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -827,7 +824,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -872,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -883,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1209,10 +1206,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1229,15 +1226,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1254,7 +1251,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -1262,7 +1259,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1482,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1535,10 +1532,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1555,15 +1552,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1580,15 +1577,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1611,7 +1608,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1626,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -1675,10 +1672,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1734,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,10 +1784,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1807,15 +1804,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1832,15 +1829,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1863,7 +1860,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1913,7 +1910,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
@@ -1924,16 +1921,16 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>48</v>
@@ -1983,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2036,10 +2033,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2056,15 +2053,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2081,15 +2078,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2104,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="105">
@@ -2112,7 +2109,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2173,16 +2170,16 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>48</v>
@@ -2285,10 +2282,10 @@
     </row>
     <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2303,15 +2300,15 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2326,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
@@ -2334,7 +2331,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2354,7 +2351,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2378,7 +2375,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Gender Select</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
-  </si>
-  <si>
     <t>Fail to Select New Gender</t>
   </si>
   <si>
@@ -312,15 +309,6 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>//md-tabs[@id="compliance-tabs"]//md-tab-item[3]</t>
-  </si>
-  <si>
-    <t>Active tab</t>
-  </si>
-  <si>
-    <t>fail to proceed to in active</t>
-  </si>
-  <si>
     <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-cs-content-theme-theme"]//md-tabs-canvas//md-tab-item[4]</t>
   </si>
   <si>
@@ -334,6 +322,9 @@
   </si>
   <si>
     <t>//button[@class="md-landing-fab md-button md-cs-content-theme-theme md-ink-ripple" and @aria-label="Order Audit"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
   </si>
 </sst>
 </file>
@@ -677,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,10 +720,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -749,15 +740,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -774,7 +765,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -782,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -799,20 +790,20 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -820,67 +811,67 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="75">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -890,22 +881,22 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -918,90 +909,90 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="90">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -1018,15 +1009,15 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="90">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1043,15 +1034,15 @@
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -1068,15 +1059,15 @@
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1093,15 +1084,15 @@
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1114,36 +1105,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="60">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1206,10 +1172,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1226,15 +1192,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1251,15 +1217,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1276,15 +1242,15 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1301,15 +1267,15 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1321,18 +1287,18 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1341,11 +1307,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1479,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1532,10 +1498,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1552,15 +1518,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1577,15 +1543,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1600,15 +1566,15 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1623,12 +1589,12 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1647,15 +1613,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1664,18 +1630,18 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1684,11 +1650,11 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1731,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -1784,10 +1750,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1804,15 +1770,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1829,15 +1795,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1852,15 +1818,15 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1877,7 +1843,7 @@
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1896,15 +1862,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1913,18 +1879,18 @@
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1933,11 +1899,11 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1980,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -2033,10 +1999,10 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2053,15 +2019,15 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2078,15 +2044,15 @@
       </c>
       <c r="I3"/>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2101,15 +2067,15 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="105">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2126,7 +2092,7 @@
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -2145,15 +2111,15 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -2162,18 +2128,18 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2182,11 +2148,11 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2282,10 +2248,10 @@
     </row>
     <row r="2" spans="1:10" ht="45">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2300,15 +2266,15 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2323,15 +2289,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="105">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2348,10 +2314,10 @@
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2367,15 +2333,15 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -2384,18 +2350,18 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2404,11 +2370,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10">

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -309,9 +309,6 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-cs-content-theme-theme"]//md-tabs-canvas//md-tab-item[4]</t>
-  </si>
-  <si>
     <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple" and @ng-click="vm.openSession(session)"])[2]</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
+  </si>
+  <si>
+    <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-blue-grey-theme"]//md-tabs-canvas//md-tab-item[4]</t>
   </si>
 </sst>
 </file>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -992,7 +992,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1551,7 +1551,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1574,7 +1574,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1698,7 +1698,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1803,7 +1803,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1826,7 +1826,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" activeCellId="1" sqref="L5 B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2070,12 +2070,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="105">
+    <row r="5" spans="1:10" ht="90">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>

--- a/resources/EditName.xlsx
+++ b/resources/EditName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EditPatient" sheetId="1" r:id="rId1"/>
@@ -309,22 +309,22 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>(//button[@class="_md-no-style md-button md-cs-content-theme-theme md-ink-ripple" and @ng-click="vm.openSession(session)"])[2]</t>
-  </si>
-  <si>
     <t>focus</t>
   </si>
   <si>
-    <t>//button[@class="md-landing-fab md-button md-cs-content-theme-theme md-ink-ripple" and  @aria-label="Note Audit"]</t>
-  </si>
-  <si>
-    <t>//button[@class="md-landing-fab md-button md-cs-content-theme-theme md-ink-ripple" and @aria-label="Order Audit"]</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
   </si>
   <si>
     <t>//md-tabs[@class="tabs-tall ng-isolate-scope md-dynamic-height md-no-tab-content md-blue-grey-theme"]//md-tabs-canvas//md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Note Audit"])[3]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Order Audit"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@class="_md-no-style md-button md-blue-grey-theme md-ink-ripple" and @ng-click="vm.openSession(session)"])[2]</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1546,12 +1546,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="75">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1574,7 +1574,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1697,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1798,12 +1798,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="75">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1826,7 +1826,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" activeCellId="1" sqref="L5 B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2075,7 +2075,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2134,12 +2134,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="36.75" customHeight="1">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="101.25" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
